--- a/data_files/excel/PPV Template.xlsx
+++ b/data_files/excel/PPV Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ATS\ATSBC_PORTAL\data_files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B59D7-579E-4542-8534-A443C5FC03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E3202-D304-4611-9ED5-A70B33411C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE67395-4790-43D1-8A6A-6C886CC4F3C6}"/>
   </bookViews>
@@ -322,6 +322,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,18 +356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814DC4FD-3F8C-474C-BB19-B9EFE3B71B77}">
   <dimension ref="B5:AI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -822,42 +822,42 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:35" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="18"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
     </row>
     <row r="6" spans="2:35" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
@@ -872,36 +872,36 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19" t="s">
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="20" t="s">
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="15"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="19"/>
     </row>
     <row r="7" spans="2:35" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
@@ -988,7 +988,7 @@
       <c r="AC7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="20"/>
+      <c r="AD7" s="24"/>
       <c r="AE7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1007,16 +1007,16 @@
     </row>
     <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1034,8 +1034,8 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1070,8 +1070,8 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>

--- a/data_files/excel/PPV Template.xlsx
+++ b/data_files/excel/PPV Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ATS\ATSBC_PORTAL\data_files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52E3202-D304-4611-9ED5-A70B33411C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD9BB37-0B40-4387-92F8-42B9FF8AAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE67395-4790-43D1-8A6A-6C886CC4F3C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{8DE67395-4790-43D1-8A6A-6C886CC4F3C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PPV" sheetId="1" r:id="rId1"/>
@@ -134,8 +134,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -288,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -322,9 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -334,6 +333,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,6 +359,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,48 +786,48 @@
   <dimension ref="B5:AI24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.7109375" customWidth="1"/>
-    <col min="31" max="31" width="19.7109375" customWidth="1"/>
-    <col min="32" max="33" width="18.85546875" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" customWidth="1"/>
-    <col min="35" max="35" width="30.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" customWidth="1"/>
+    <col min="32" max="33" width="18.88671875" customWidth="1"/>
+    <col min="34" max="34" width="20.5546875" customWidth="1"/>
+    <col min="35" max="35" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:35" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
@@ -859,7 +865,7 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="22"/>
     </row>
-    <row r="6" spans="2:35" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:35" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -903,11 +909,11 @@
       <c r="AH6" s="18"/>
       <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="2:35" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:35" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1005,18 +1011,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1034,16 +1040,16 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1070,16 +1076,16 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1113,9 +1119,9 @@
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1149,9 +1155,9 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1185,9 +1191,9 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1221,9 +1227,9 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1257,9 +1263,9 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1293,9 +1299,9 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1329,9 +1335,9 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1365,9 +1371,9 @@
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1401,9 +1407,9 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1437,9 +1443,9 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1473,9 +1479,9 @@
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1509,9 +1515,9 @@
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1545,7 +1551,7 @@
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
